--- a/conf-core/src/test/resources/dataloader/slots-import-creation.xlsx
+++ b/conf-core/src/test/resources/dataloader/slots-import-creation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ESS\Documents\Import-slots-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ess-git\ccdb\conf-core\src\test\resources\dataloader\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,9 +108,6 @@
     <t xml:space="preserve">Test </t>
   </si>
   <si>
-    <t>CREATE RELATION</t>
-  </si>
-  <si>
     <t>POWERS</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>IMPORT_TEST_4</t>
   </si>
   <si>
-    <t>INSTALL</t>
-  </si>
-  <si>
     <t>Root1</t>
   </si>
   <si>
@@ -163,6 +157,12 @@
   </si>
   <si>
     <t>BPM1-01</t>
+  </si>
+  <si>
+    <t>INSTALL DEVICE</t>
+  </si>
+  <si>
+    <t>CREATE RELATIONSHIP</t>
   </si>
 </sst>
 </file>
@@ -621,9 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -772,7 +770,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -783,10 +781,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -797,13 +795,13 @@
         <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -814,13 +812,13 @@
         <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -831,10 +829,10 @@
         <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>26</v>
@@ -848,13 +846,13 @@
         <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>26</v>
@@ -868,13 +866,13 @@
         <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>26</v>
@@ -891,10 +889,10 @@
         <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>28</v>
@@ -908,13 +906,13 @@
         <v>24</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>28</v>
@@ -922,48 +920,48 @@
     </row>
     <row r="19" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +981,7 @@
       <formula1>"CONTAINER,SLOT"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A1048576">
-      <formula1>"CREATE ENTITY,UPDATE ENTITY,DELETE ENTITY,CREATE PROPERTY,UPDATE PROPERTY,DELETE PROPERTY,CREATE RELATION,UPDATE RELATION,DELETE RELATION,INSTALL,UNINSTALL"</formula1>
+      <formula1>"CREATE ENTITY,UPDATE ENTITY,DELETE ENTITY,CREATE PROPERTY,UPDATE PROPERTY,DELETE PROPERTY,CREATE RELATIONSHIP,UPDATE RELATIONSHIP,DELETE RELATIONSHIP,INSTALL DEVICE,UNINSTALL DEVICE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
